--- a/results/cifar10_training/global_results_cifar10.xlsx
+++ b/results/cifar10_training/global_results_cifar10.xlsx
@@ -7,31 +7,43 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Global metrics " sheetId="1" r:id="rId1"/>
+    <sheet name="Global metrics" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Epochs: 200, Batch size: 200, Learning rate: 0.001</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Global metrics -&gt; Dataset: cifar10</t>
   </si>
   <si>
     <t>Test task</t>
   </si>
   <si>
+    <t>Test accuracy on task 1 after task 1</t>
+  </si>
+  <si>
+    <t>Test accuracy on task 2 after task 1</t>
+  </si>
+  <si>
     <t>Test average accuracy after task 1</t>
   </si>
   <si>
+    <t>Test accuracy on task 1 after task 2</t>
+  </si>
+  <si>
+    <t>Test accuracy on task 2 after task 2</t>
+  </si>
+  <si>
     <t>Test average accuracy after task 2</t>
   </si>
   <si>
-    <t>Finetuning</t>
-  </si>
-  <si>
-    <t>Joint training</t>
+    <t>Fine-tuning</t>
+  </si>
+  <si>
+    <t>Joint datasets</t>
   </si>
   <si>
     <t>Rehearsal 0.1</t>
@@ -410,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,25 +445,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -459,25 +471,25 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>40.07</v>
+        <v>81</v>
       </c>
       <c r="C3">
-        <v>75.7</v>
+        <v>75.39</v>
       </c>
       <c r="D3">
-        <v>41.01</v>
+        <v>81.42</v>
       </c>
       <c r="E3">
-        <v>41.02</v>
+        <v>82.04000000000001</v>
       </c>
       <c r="F3">
-        <v>40.35</v>
+        <v>80.95999999999999</v>
       </c>
       <c r="G3">
-        <v>41.39999771118164</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="H3">
-        <v>40.84000015258789</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -485,22 +497,129 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>44.07</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>75.39</v>
       </c>
       <c r="D4">
-        <v>57.94</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>70.14</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>72.47</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>43.06999969482422</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>57.61999893188477</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40.5</v>
+      </c>
+      <c r="C5">
+        <v>75.39</v>
+      </c>
+      <c r="D5">
+        <v>40.71</v>
+      </c>
+      <c r="E5">
+        <v>41.02</v>
+      </c>
+      <c r="F5">
+        <v>40.48</v>
+      </c>
+      <c r="G5">
+        <v>40.12</v>
+      </c>
+      <c r="H5">
+        <v>41.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>75.39</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>56.3</v>
+      </c>
+      <c r="F6">
+        <v>62.8</v>
+      </c>
+      <c r="G6">
+        <v>0.12</v>
+      </c>
+      <c r="H6">
+        <v>63.32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>87.92</v>
+      </c>
+      <c r="C7">
+        <v>75.39</v>
+      </c>
+      <c r="D7">
+        <v>87.44</v>
+      </c>
+      <c r="E7">
+        <v>84.36</v>
+      </c>
+      <c r="F7">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="G7">
+        <v>87.95999999999999</v>
+      </c>
+      <c r="H7">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>43.96</v>
+      </c>
+      <c r="C8">
+        <v>75.39</v>
+      </c>
+      <c r="D8">
+        <v>62.72</v>
+      </c>
+      <c r="E8">
+        <v>70.33</v>
+      </c>
+      <c r="F8">
+        <v>72.69999999999999</v>
+      </c>
+      <c r="G8">
+        <v>44.04</v>
+      </c>
+      <c r="H8">
+        <v>59.18</v>
       </c>
     </row>
   </sheetData>
